--- a/Code/Results/Cases/Case_7_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_2/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>21.67843575972723</v>
       </c>
       <c r="C2">
-        <v>11.85934468876984</v>
+        <v>11.85934468876973</v>
       </c>
       <c r="D2">
         <v>6.821959389543893</v>
       </c>
       <c r="E2">
-        <v>5.910169733361117</v>
+        <v>5.910169733360986</v>
       </c>
       <c r="F2">
-        <v>68.06986707037997</v>
+        <v>68.0698670703799</v>
       </c>
       <c r="G2">
-        <v>2.166224033440122</v>
+        <v>2.166224033439987</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.897236069583143</v>
+        <v>6.897236069583104</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.783472551359367</v>
+        <v>5.783472551359278</v>
       </c>
       <c r="M2">
-        <v>13.00067506246272</v>
+        <v>13.0006750624627</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.5838777555266</v>
+        <v>20.58387775552674</v>
       </c>
       <c r="C3">
-        <v>10.95711936149025</v>
+        <v>10.95711936149018</v>
       </c>
       <c r="D3">
-        <v>6.467388658321307</v>
+        <v>6.467388658321208</v>
       </c>
       <c r="E3">
-        <v>5.848555722303727</v>
+        <v>5.848555722303928</v>
       </c>
       <c r="F3">
-        <v>65.17368352755915</v>
+        <v>65.17368352755911</v>
       </c>
       <c r="G3">
-        <v>2.18066162056888</v>
+        <v>2.180661620569154</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.871876749063991</v>
+        <v>6.871876749064064</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.827258107237181</v>
+        <v>5.827258107237349</v>
       </c>
       <c r="M3">
-        <v>12.714044332936</v>
+        <v>12.7140443329362</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>19.91138375672071</v>
       </c>
       <c r="C4">
-        <v>10.37988950132615</v>
+        <v>10.3798895013261</v>
       </c>
       <c r="D4">
-        <v>6.244811895414706</v>
+        <v>6.244811895414844</v>
       </c>
       <c r="E4">
-        <v>5.811059733658898</v>
+        <v>5.811059733658965</v>
       </c>
       <c r="F4">
-        <v>63.38004197988547</v>
+        <v>63.38004197988555</v>
       </c>
       <c r="G4">
-        <v>2.189678557897954</v>
+        <v>2.189678557898211</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.856951461768414</v>
+        <v>6.856951461768551</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.857885594165587</v>
+        <v>5.857885594165702</v>
       </c>
       <c r="M4">
-        <v>12.54948921010952</v>
+        <v>12.54948921010949</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.63749246192516</v>
+        <v>19.63749246192511</v>
       </c>
       <c r="C5">
-        <v>10.13864255353318</v>
+        <v>10.13864255353349</v>
       </c>
       <c r="D5">
-        <v>6.152902435883195</v>
+        <v>6.152902435883203</v>
       </c>
       <c r="E5">
-        <v>5.795837146879953</v>
+        <v>5.795837146880223</v>
       </c>
       <c r="F5">
-        <v>62.64555394240261</v>
+        <v>62.64555394240262</v>
       </c>
       <c r="G5">
-        <v>2.193396193766468</v>
+        <v>2.193396193766602</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.851012748883516</v>
+        <v>6.851012748883554</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.871280295349314</v>
+        <v>5.871280295349308</v>
       </c>
       <c r="M5">
-        <v>12.4852685699245</v>
+        <v>12.48526856992445</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -615,16 +615,16 @@
         <v>10.09821541825426</v>
       </c>
       <c r="D6">
-        <v>6.137568845026204</v>
+        <v>6.137568845026161</v>
       </c>
       <c r="E6">
-        <v>5.793312178159819</v>
+        <v>5.79331217815962</v>
       </c>
       <c r="F6">
-        <v>62.52338882969903</v>
+        <v>62.52338882969899</v>
       </c>
       <c r="G6">
-        <v>2.194016245253319</v>
+        <v>2.194016245253193</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.850034777480188</v>
+        <v>6.850034777480031</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.873558909187723</v>
+        <v>5.873558909187694</v>
       </c>
       <c r="M6">
-        <v>12.47477499755317</v>
+        <v>12.47477499755311</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.907688930017</v>
+        <v>19.90768893001709</v>
       </c>
       <c r="C7">
-        <v>10.37666055124435</v>
+        <v>10.37666055124423</v>
       </c>
       <c r="D7">
-        <v>6.2435772264995</v>
+        <v>6.243577226499547</v>
       </c>
       <c r="E7">
-        <v>5.810854237885749</v>
+        <v>5.810854237885614</v>
       </c>
       <c r="F7">
-        <v>63.37015035503578</v>
+        <v>63.370150355036</v>
       </c>
       <c r="G7">
-        <v>2.189728514355959</v>
+        <v>2.189728514355954</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.856870812948134</v>
+        <v>6.856870812948111</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.858062574448527</v>
+        <v>5.858062574448494</v>
       </c>
       <c r="M7">
-        <v>12.54861167231272</v>
+        <v>12.54861167231278</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.30125573837259</v>
+        <v>21.30125573837251</v>
       </c>
       <c r="C8">
-        <v>11.55297404113791</v>
+        <v>11.55297404113794</v>
       </c>
       <c r="D8">
-        <v>6.70071812340207</v>
+        <v>6.700718123402106</v>
       </c>
       <c r="E8">
-        <v>5.888838412143775</v>
+        <v>5.888838412143908</v>
       </c>
       <c r="F8">
-        <v>67.07459082611845</v>
+        <v>67.07459082611864</v>
       </c>
       <c r="G8">
-        <v>2.171173622593109</v>
+        <v>2.171173622592971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.88834629210417</v>
+        <v>6.888346292104157</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.797775607847155</v>
+        <v>5.797775607847098</v>
       </c>
       <c r="M8">
-        <v>12.89944655904835</v>
+        <v>12.89944655904825</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02337390321879</v>
+        <v>24.02337390321883</v>
       </c>
       <c r="C9">
-        <v>13.68424209046856</v>
+        <v>13.68424209046846</v>
       </c>
       <c r="D9">
-        <v>7.558845593494146</v>
+        <v>7.558845593494193</v>
       </c>
       <c r="E9">
-        <v>6.045830434374104</v>
+        <v>6.045830434374039</v>
       </c>
       <c r="F9">
-        <v>74.21183509127739</v>
+        <v>74.21183509127755</v>
       </c>
       <c r="G9">
-        <v>2.135745553228952</v>
+        <v>2.135745553228968</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.956149682820866</v>
+        <v>6.956149682820807</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.710639727298618</v>
+        <v>5.710639727298606</v>
       </c>
       <c r="M9">
-        <v>13.68025890741534</v>
+        <v>13.68025890741533</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0140751753887</v>
+        <v>26.01407517538871</v>
       </c>
       <c r="C10">
-        <v>15.15799351572343</v>
+        <v>15.15799351572334</v>
       </c>
       <c r="D10">
-        <v>8.167987345817723</v>
+        <v>8.167987345817798</v>
       </c>
       <c r="E10">
-        <v>6.165965201161259</v>
+        <v>6.165965201161325</v>
       </c>
       <c r="F10">
-        <v>79.38456854594621</v>
+        <v>79.38456854594689</v>
       </c>
       <c r="G10">
-        <v>2.109898790018915</v>
+        <v>2.109898790018681</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.011210707901788</v>
+        <v>7.011210707901819</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.667774137770201</v>
+        <v>5.667774137770188</v>
       </c>
       <c r="M10">
-        <v>14.31437929010425</v>
+        <v>14.31437929010418</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.94284158671459</v>
+        <v>26.94284158671457</v>
       </c>
       <c r="C11">
-        <v>15.81251031840818</v>
+        <v>15.81251031840822</v>
       </c>
       <c r="D11">
-        <v>8.441400767847208</v>
+        <v>8.441400767847126</v>
       </c>
       <c r="E11">
-        <v>6.22230135711828</v>
+        <v>6.222301357118343</v>
       </c>
       <c r="F11">
-        <v>81.72803133051065</v>
+        <v>81.7280313305106</v>
       </c>
       <c r="G11">
-        <v>2.098071567926309</v>
+        <v>2.098071567926067</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.037813240267302</v>
+        <v>7.037813240267382</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.653449526718998</v>
+        <v>5.653449526718985</v>
       </c>
       <c r="M11">
-        <v>14.61726482161367</v>
+        <v>14.61726482161369</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.33000847316965</v>
+        <v>27.33000847316959</v>
       </c>
       <c r="C12">
-        <v>16.05848320081112</v>
+        <v>16.05848320081105</v>
       </c>
       <c r="D12">
-        <v>8.544518256458774</v>
+        <v>8.544518256458778</v>
       </c>
       <c r="E12">
-        <v>6.243943195023849</v>
+        <v>6.243943195023713</v>
       </c>
       <c r="F12">
-        <v>82.61484574559937</v>
+        <v>82.61484574559958</v>
       </c>
       <c r="G12">
-        <v>2.093572003299585</v>
+        <v>2.093572003299466</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.048152336081993</v>
+        <v>7.048152336081944</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.64882717260518</v>
+        <v>5.648827172605228</v>
       </c>
       <c r="M12">
-        <v>14.73418359424735</v>
+        <v>14.73418359424737</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.24670491600039</v>
+        <v>27.24670491600028</v>
       </c>
       <c r="C13">
-        <v>16.00558480290008</v>
+        <v>16.00558480290028</v>
       </c>
       <c r="D13">
-        <v>8.522326525998489</v>
+        <v>8.522326525998427</v>
       </c>
       <c r="E13">
-        <v>6.239267323257904</v>
+        <v>6.23926732325784</v>
       </c>
       <c r="F13">
-        <v>82.4238656804052</v>
+        <v>82.4238656804051</v>
       </c>
       <c r="G13">
-        <v>2.09454218623518</v>
+        <v>2.094542186235073</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.045913085170976</v>
+        <v>7.045913085170944</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.649785988018277</v>
+        <v>5.649785988018239</v>
       </c>
       <c r="M13">
         <v>14.70890132469044</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.9747307512699</v>
+        <v>26.97473075127001</v>
       </c>
       <c r="C14">
-        <v>15.83278170611695</v>
+        <v>15.83278170611726</v>
       </c>
       <c r="D14">
-        <v>8.449891929570819</v>
+        <v>8.449891929570983</v>
       </c>
       <c r="E14">
-        <v>6.224075235674341</v>
+        <v>6.224075235674408</v>
       </c>
       <c r="F14">
-        <v>81.80099667678333</v>
+        <v>81.80099667678392</v>
       </c>
       <c r="G14">
         <v>2.097701873045496</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.038658262196046</v>
+        <v>7.038658262196096</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.653052804481358</v>
+        <v>5.653052804481364</v>
       </c>
       <c r="M14">
-        <v>14.62683823791483</v>
+        <v>14.62683823791471</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.8078962181435</v>
+        <v>26.80789621814342</v>
       </c>
       <c r="C15">
-        <v>15.72670353096913</v>
+        <v>15.7267035309688</v>
       </c>
       <c r="D15">
         <v>8.405473060798101</v>
       </c>
       <c r="E15">
-        <v>6.21481200619736</v>
+        <v>6.214812006197028</v>
       </c>
       <c r="F15">
-        <v>81.41942090460728</v>
+        <v>81.41942090460745</v>
       </c>
       <c r="G15">
-        <v>2.099634201804773</v>
+        <v>2.099634201804778</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.03425038357675</v>
+        <v>7.034250383576635</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.655160147598069</v>
+        <v>5.655160147597982</v>
       </c>
       <c r="M15">
-        <v>14.5768668741349</v>
+        <v>14.57686687413493</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.95493211802471</v>
+        <v>25.95493211802474</v>
       </c>
       <c r="C16">
-        <v>15.11493263864612</v>
+        <v>15.11493263864602</v>
       </c>
       <c r="D16">
-        <v>8.150053782041805</v>
+        <v>8.150053782041864</v>
       </c>
       <c r="E16">
-        <v>6.162322799172912</v>
+        <v>6.162322799172914</v>
       </c>
       <c r="F16">
-        <v>79.23128417793299</v>
+        <v>79.23128417793301</v>
       </c>
       <c r="G16">
-        <v>2.110669442720591</v>
+        <v>2.110669442720306</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.009506864194752</v>
+        <v>7.009506864194777</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.668819171642115</v>
+        <v>5.668819171642138</v>
       </c>
       <c r="M16">
-        <v>14.29488691711786</v>
+        <v>14.29488691711783</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43659590560074</v>
+        <v>25.43659590560072</v>
       </c>
       <c r="C17">
-        <v>14.73582740886092</v>
+        <v>14.73582740886106</v>
       </c>
       <c r="D17">
-        <v>7.99248762747144</v>
+        <v>7.992487627471434</v>
       </c>
       <c r="E17">
-        <v>6.130597471310224</v>
+        <v>6.130597471310023</v>
       </c>
       <c r="F17">
-        <v>77.8869328835415</v>
+        <v>77.88693288354165</v>
       </c>
       <c r="G17">
-        <v>2.117414259983569</v>
+        <v>2.117414259983296</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.994753292047361</v>
+        <v>6.994753292047248</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.678562518523517</v>
+        <v>5.678562518523435</v>
       </c>
       <c r="M17">
-        <v>14.12568732018662</v>
+        <v>14.1256873201866</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.13840154200583</v>
+        <v>25.13840154200585</v>
       </c>
       <c r="C18">
-        <v>14.51625133591835</v>
+        <v>14.51625133591843</v>
       </c>
       <c r="D18">
-        <v>7.90150408477613</v>
+        <v>7.901504084776108</v>
       </c>
       <c r="E18">
-        <v>6.112504005191006</v>
+        <v>6.11250400519094</v>
       </c>
       <c r="F18">
-        <v>77.11272741491264</v>
+        <v>77.11272741491274</v>
       </c>
       <c r="G18">
-        <v>2.121287917522921</v>
+        <v>2.121287917523333</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.986410920382376</v>
+        <v>6.986410920382409</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.684649806615742</v>
+        <v>5.684649806615749</v>
       </c>
       <c r="M18">
-        <v>14.0297143390344</v>
+        <v>14.02971433903437</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>25.03742106761714</v>
       </c>
       <c r="C19">
-        <v>14.44163345671392</v>
+        <v>14.44163345671391</v>
       </c>
       <c r="D19">
-        <v>7.870634629959857</v>
+        <v>7.870634629959829</v>
       </c>
       <c r="E19">
-        <v>6.106402520524751</v>
+        <v>6.106402520524885</v>
       </c>
       <c r="F19">
-        <v>76.85040884821601</v>
+        <v>76.85040884821585</v>
       </c>
       <c r="G19">
-        <v>2.122598780031222</v>
+        <v>2.122598780031857</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.983609823811871</v>
+        <v>6.983609823811864</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.686792219344082</v>
+        <v>5.686792219344128</v>
       </c>
       <c r="M19">
-        <v>13.99744690833138</v>
+        <v>13.99744690833137</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.49177837056639</v>
+        <v>25.4917783705664</v>
       </c>
       <c r="C20">
-        <v>14.77633888295971</v>
+        <v>14.77633888295965</v>
       </c>
       <c r="D20">
-        <v>8.00929691146726</v>
+        <v>8.009296911467409</v>
       </c>
       <c r="E20">
-        <v>6.133958298327934</v>
+        <v>6.133958298328001</v>
       </c>
       <c r="F20">
-        <v>78.03013701687173</v>
+        <v>78.03013701687233</v>
       </c>
       <c r="G20">
-        <v>2.116696934084427</v>
+        <v>2.11669693408391</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.996308704420001</v>
+        <v>6.996308704420054</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.677474924599268</v>
+        <v>5.677474924599251</v>
       </c>
       <c r="M20">
-        <v>14.1435586470436</v>
+        <v>14.14355864704356</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.05466576284967</v>
+        <v>27.05466576284959</v>
       </c>
       <c r="C21">
-        <v>15.88358553186054</v>
+        <v>15.88358553186044</v>
       </c>
       <c r="D21">
-        <v>8.471178021896375</v>
+        <v>8.471178021896355</v>
       </c>
       <c r="E21">
-        <v>6.228528555095823</v>
+        <v>6.228528555095825</v>
       </c>
       <c r="F21">
-        <v>81.98395711818939</v>
+        <v>81.98395711818911</v>
       </c>
       <c r="G21">
-        <v>2.096774458523616</v>
+        <v>2.096774458523741</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.04078161102292</v>
+        <v>7.040781611022968</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.652070987201542</v>
+        <v>5.652070987201569</v>
       </c>
       <c r="M21">
-        <v>14.65088041910995</v>
+        <v>14.65088041910996</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.17844601504857</v>
+        <v>28.17844601504869</v>
       </c>
       <c r="C22">
-        <v>16.59653128963388</v>
+        <v>16.5965312896341</v>
       </c>
       <c r="D22">
-        <v>8.770682681980896</v>
+        <v>8.770682681980926</v>
       </c>
       <c r="E22">
-        <v>6.292174796092133</v>
+        <v>6.292174796092069</v>
       </c>
       <c r="F22">
-        <v>84.565067195578</v>
+        <v>84.56506719557841</v>
       </c>
       <c r="G22">
-        <v>2.083625913002148</v>
+        <v>2.08362591300213</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.071418512133482</v>
+        <v>7.07141851213344</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.640176851583553</v>
+        <v>5.640176851583401</v>
       </c>
       <c r="M22">
-        <v>14.99550432362882</v>
+        <v>14.99550432362874</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57951680440643</v>
+        <v>27.57951680440649</v>
       </c>
       <c r="C23">
-        <v>16.21684353669866</v>
+        <v>16.2168435366985</v>
       </c>
       <c r="D23">
-        <v>8.611001664578243</v>
+        <v>8.611001664578177</v>
       </c>
       <c r="E23">
-        <v>6.258011959947045</v>
+        <v>6.258011959946976</v>
       </c>
       <c r="F23">
-        <v>83.18741257220249</v>
+        <v>83.18741257220236</v>
       </c>
       <c r="G23">
-        <v>2.09065937048819</v>
+        <v>2.090659370487949</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.054907482799837</v>
+        <v>7.054907482799699</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.646072537471881</v>
+        <v>5.646072537471836</v>
       </c>
       <c r="M23">
-        <v>14.81031523810896</v>
+        <v>14.81031523810891</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.46683100814584</v>
+        <v>25.46683100814588</v>
       </c>
       <c r="C24">
-        <v>14.75802873183651</v>
+        <v>14.75802873183649</v>
       </c>
       <c r="D24">
-        <v>8.001698677655487</v>
+        <v>8.001698677655462</v>
       </c>
       <c r="E24">
-        <v>6.132438418926373</v>
+        <v>6.132438418926509</v>
       </c>
       <c r="F24">
-        <v>77.96539859483737</v>
+        <v>77.96539859483678</v>
       </c>
       <c r="G24">
-        <v>2.117021248877011</v>
+        <v>2.117021248876877</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.995605070534483</v>
+        <v>6.995605070534526</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.677965117216822</v>
+        <v>5.677965117216923</v>
       </c>
       <c r="M24">
-        <v>14.13547497497517</v>
+        <v>14.13547497497521</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.28875753564735</v>
+        <v>23.28875753564737</v>
       </c>
       <c r="C25">
-        <v>13.12506345513268</v>
+        <v>13.12506345513275</v>
       </c>
       <c r="D25">
-        <v>7.330674266952652</v>
+        <v>7.3306742669527</v>
       </c>
       <c r="E25">
-        <v>6.002708042370446</v>
+        <v>6.002708042370314</v>
       </c>
       <c r="F25">
-        <v>72.29466283662885</v>
+        <v>72.29466283662899</v>
       </c>
       <c r="G25">
-        <v>2.145265294231463</v>
+        <v>2.145265294230959</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.937010182466062</v>
+        <v>6.937010182466066</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.73067420200917</v>
+        <v>5.730674202009169</v>
       </c>
       <c r="M25">
-        <v>13.45875232727576</v>
+        <v>13.45875232727575</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.67843575972723</v>
+        <v>21.01190612354817</v>
       </c>
       <c r="C2">
-        <v>11.85934468876973</v>
+        <v>13.34386144240957</v>
       </c>
       <c r="D2">
-        <v>6.821959389543893</v>
+        <v>3.802327141210841</v>
       </c>
       <c r="E2">
-        <v>5.910169733360986</v>
+        <v>7.063219963345195</v>
       </c>
       <c r="F2">
-        <v>68.0698670703799</v>
+        <v>27.9168014962673</v>
       </c>
       <c r="G2">
-        <v>2.166224033439987</v>
+        <v>36.53791940892218</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3.024075094077743</v>
       </c>
       <c r="J2">
-        <v>6.897236069583104</v>
+        <v>12.11231010644387</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.62706020985166</v>
       </c>
       <c r="L2">
-        <v>5.783472551359278</v>
+        <v>6.029160720794781</v>
       </c>
       <c r="M2">
-        <v>13.0006750624627</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.055895812153665</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.12462467127643</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.58387775552674</v>
+        <v>19.65226691775591</v>
       </c>
       <c r="C3">
-        <v>10.95711936149018</v>
+        <v>12.52554924667506</v>
       </c>
       <c r="D3">
-        <v>6.467388658321208</v>
+        <v>3.719997252587633</v>
       </c>
       <c r="E3">
-        <v>5.848555722303928</v>
+        <v>6.953419447069158</v>
       </c>
       <c r="F3">
-        <v>65.17368352755911</v>
+        <v>27.45442480694847</v>
       </c>
       <c r="G3">
-        <v>2.180661620569154</v>
+        <v>35.66361501354073</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.314569125287783</v>
       </c>
       <c r="J3">
-        <v>6.871876749064064</v>
+        <v>12.05724051758389</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.67737770349859</v>
       </c>
       <c r="L3">
-        <v>5.827258107237349</v>
+        <v>5.974378770844721</v>
       </c>
       <c r="M3">
-        <v>12.7140443329362</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.8509248391674</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.49285828070731</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.91138375672071</v>
+        <v>18.77093626764453</v>
       </c>
       <c r="C4">
-        <v>10.3798895013261</v>
+        <v>11.99574959325214</v>
       </c>
       <c r="D4">
-        <v>6.244811895414844</v>
+        <v>3.668632627336232</v>
       </c>
       <c r="E4">
-        <v>5.811059733658965</v>
+        <v>6.884275027591133</v>
       </c>
       <c r="F4">
-        <v>63.38004197988555</v>
+        <v>27.18519381421598</v>
       </c>
       <c r="G4">
-        <v>2.189678557898211</v>
+        <v>35.14712435578879</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.498466031635435</v>
       </c>
       <c r="J4">
-        <v>6.856951461768551</v>
+        <v>12.03047113471404</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.72054893292033</v>
       </c>
       <c r="L4">
-        <v>5.857885594165702</v>
+        <v>5.939628356894846</v>
       </c>
       <c r="M4">
-        <v>12.54948921010949</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.721926062252742</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.09009222428114</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.63749246192511</v>
+        <v>18.40013149270307</v>
       </c>
       <c r="C5">
-        <v>10.13864255353349</v>
+        <v>11.77299019728509</v>
       </c>
       <c r="D5">
-        <v>6.152902435883203</v>
+        <v>3.64749482211741</v>
       </c>
       <c r="E5">
-        <v>5.795837146880223</v>
+        <v>6.855645989888824</v>
       </c>
       <c r="F5">
-        <v>62.64555394240262</v>
+        <v>27.07917024331576</v>
       </c>
       <c r="G5">
-        <v>2.193396193766602</v>
+        <v>34.94187692410428</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.574829995069405</v>
       </c>
       <c r="J5">
-        <v>6.851012748883554</v>
+        <v>12.02128051370784</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.74109935217964</v>
       </c>
       <c r="L5">
-        <v>5.871280295349308</v>
+        <v>5.925180281998251</v>
       </c>
       <c r="M5">
-        <v>12.48526856992445</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.668607497044955</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.92238553052758</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.59203156298483</v>
+        <v>18.3378573534424</v>
       </c>
       <c r="C6">
-        <v>10.09821541825426</v>
+        <v>11.73558751027963</v>
       </c>
       <c r="D6">
-        <v>6.137568845026161</v>
+        <v>3.643972416025679</v>
       </c>
       <c r="E6">
-        <v>5.79331217815962</v>
+        <v>6.850864344140499</v>
       </c>
       <c r="F6">
-        <v>62.52338882969899</v>
+        <v>27.06178783177467</v>
       </c>
       <c r="G6">
-        <v>2.194016245253193</v>
+        <v>34.90811443733307</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.58759715440224</v>
       </c>
       <c r="J6">
-        <v>6.850034777480031</v>
+        <v>12.01985661245027</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.74468666121658</v>
       </c>
       <c r="L6">
-        <v>5.873558909187694</v>
+        <v>5.922763662654408</v>
       </c>
       <c r="M6">
-        <v>12.47477499755311</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.659709921240736</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.89432720833923</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.90768893001709</v>
+        <v>18.76598258626089</v>
       </c>
       <c r="C7">
-        <v>10.37666055124423</v>
+        <v>11.99277313272665</v>
       </c>
       <c r="D7">
-        <v>6.243577226499547</v>
+        <v>3.668348392297947</v>
       </c>
       <c r="E7">
-        <v>5.810854237885614</v>
+        <v>6.883890780148527</v>
       </c>
       <c r="F7">
-        <v>63.370150355036</v>
+        <v>27.18374900719253</v>
       </c>
       <c r="G7">
-        <v>2.189728514355954</v>
+        <v>35.14433501562196</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.499490092051672</v>
       </c>
       <c r="J7">
-        <v>6.856870812948111</v>
+        <v>12.03034030119152</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.72081427539493</v>
       </c>
       <c r="L7">
-        <v>5.858062574448494</v>
+        <v>5.939434675959361</v>
       </c>
       <c r="M7">
-        <v>12.54861167231278</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.721209971850055</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.08784472072191</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.30125573837251</v>
+        <v>20.55277055984435</v>
       </c>
       <c r="C8">
-        <v>11.55297404113794</v>
+        <v>13.0673897053134</v>
       </c>
       <c r="D8">
-        <v>6.700718123402106</v>
+        <v>3.774107322069067</v>
       </c>
       <c r="E8">
-        <v>5.888838412143908</v>
+        <v>7.025707932693914</v>
       </c>
       <c r="F8">
-        <v>67.07459082611864</v>
+        <v>27.75433280984737</v>
       </c>
       <c r="G8">
-        <v>2.171173622592971</v>
+        <v>36.23231025937518</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.123109745039896</v>
       </c>
       <c r="J8">
-        <v>6.888346292104157</v>
+        <v>12.09182870199159</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.64178315473631</v>
       </c>
       <c r="L8">
-        <v>5.797775607847098</v>
+        <v>6.010498879958607</v>
       </c>
       <c r="M8">
-        <v>12.89944655904825</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.985897786530106</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.90996303789126</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02337390321883</v>
+        <v>23.77517470691235</v>
       </c>
       <c r="C9">
-        <v>13.68424209046846</v>
+        <v>14.95768759714224</v>
       </c>
       <c r="D9">
-        <v>7.558845593494193</v>
+        <v>3.975188264525555</v>
       </c>
       <c r="E9">
-        <v>6.045830434374039</v>
+        <v>7.290978468332174</v>
       </c>
       <c r="F9">
-        <v>74.21183509127755</v>
+        <v>28.98922059992142</v>
       </c>
       <c r="G9">
-        <v>2.135745553228968</v>
+        <v>38.52178012110748</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.427332612759158</v>
       </c>
       <c r="J9">
-        <v>6.956149682820807</v>
+        <v>12.27060593711128</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.59014208148587</v>
       </c>
       <c r="L9">
-        <v>5.710639727298606</v>
+        <v>6.141347314406162</v>
       </c>
       <c r="M9">
-        <v>13.68025890741533</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.478422644423965</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.39857295747225</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.01407517538871</v>
+        <v>25.9273865593703</v>
       </c>
       <c r="C10">
-        <v>15.15799351572334</v>
+        <v>16.25396133742796</v>
       </c>
       <c r="D10">
-        <v>8.167987345817798</v>
+        <v>4.11285797826552</v>
       </c>
       <c r="E10">
-        <v>6.165965201161325</v>
+        <v>7.469307277124764</v>
       </c>
       <c r="F10">
-        <v>79.38456854594689</v>
+        <v>29.72710817568827</v>
       </c>
       <c r="G10">
-        <v>2.109898790018681</v>
+        <v>39.91879779843298</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.970780823327763</v>
       </c>
       <c r="J10">
-        <v>7.011210707901819</v>
+        <v>12.36509206750612</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.4784295707739</v>
       </c>
       <c r="L10">
-        <v>5.667774137770188</v>
+        <v>6.2346136207328</v>
       </c>
       <c r="M10">
-        <v>14.31437929010418</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.760962313948489</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.36916350863483</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.94284158671457</v>
+        <v>26.92715971266689</v>
       </c>
       <c r="C11">
-        <v>15.81251031840822</v>
+        <v>17.15190256759186</v>
       </c>
       <c r="D11">
-        <v>8.441400767847126</v>
+        <v>4.118921385677091</v>
       </c>
       <c r="E11">
-        <v>6.222301357118343</v>
+        <v>7.54656395515958</v>
       </c>
       <c r="F11">
-        <v>81.7280313305106</v>
+        <v>28.01154176934085</v>
       </c>
       <c r="G11">
-        <v>2.098071567926067</v>
+        <v>37.35431325641812</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.861300875166955</v>
       </c>
       <c r="J11">
-        <v>7.037813240267382</v>
+        <v>11.76473666609589</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.20305351047417</v>
       </c>
       <c r="L11">
-        <v>5.653449526718985</v>
+        <v>6.343045122556909</v>
       </c>
       <c r="M11">
-        <v>14.61726482161369</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.367383895919481</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.42953876388018</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.33000847316959</v>
+        <v>27.33580359368831</v>
       </c>
       <c r="C12">
-        <v>16.05848320081105</v>
+        <v>17.65333889368969</v>
       </c>
       <c r="D12">
-        <v>8.544518256458778</v>
+        <v>4.095173369245424</v>
       </c>
       <c r="E12">
-        <v>6.243943195023713</v>
+        <v>7.685379024582119</v>
       </c>
       <c r="F12">
-        <v>82.61484574559958</v>
+        <v>26.38316588635583</v>
       </c>
       <c r="G12">
-        <v>2.093572003299466</v>
+        <v>34.84619184663652</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.209065867432692</v>
       </c>
       <c r="J12">
-        <v>7.048152336081944</v>
+        <v>11.23239795135328</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.16634937305036</v>
       </c>
       <c r="L12">
-        <v>5.648827172605228</v>
+        <v>6.48135943174463</v>
       </c>
       <c r="M12">
-        <v>14.73418359424737</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.988798737663179</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.27301462817514</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.24670491600028</v>
+        <v>27.32829851112712</v>
       </c>
       <c r="C13">
-        <v>16.00558480290028</v>
+        <v>17.8949117406616</v>
       </c>
       <c r="D13">
-        <v>8.522326525998427</v>
+        <v>4.046356107668752</v>
       </c>
       <c r="E13">
-        <v>6.23926732325784</v>
+        <v>7.870955591188588</v>
       </c>
       <c r="F13">
-        <v>82.4238656804051</v>
+        <v>24.70417593713842</v>
       </c>
       <c r="G13">
-        <v>2.094542186235073</v>
+        <v>32.1783390775811</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.628346499978378</v>
       </c>
       <c r="J13">
-        <v>7.045913085170944</v>
+        <v>10.7187806618554</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.26189525415026</v>
       </c>
       <c r="L13">
-        <v>5.649785988018239</v>
+        <v>6.644119813302303</v>
       </c>
       <c r="M13">
-        <v>14.70890132469044</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.597220516247856</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.93638904864595</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.97473075127001</v>
+        <v>27.135320830032</v>
       </c>
       <c r="C14">
-        <v>15.83278170611726</v>
+        <v>17.95054440126845</v>
       </c>
       <c r="D14">
-        <v>8.449891929570983</v>
+        <v>4.000730827940727</v>
       </c>
       <c r="E14">
-        <v>6.224075235674408</v>
+        <v>8.031071469163169</v>
       </c>
       <c r="F14">
-        <v>81.80099667678392</v>
+        <v>23.50765592318657</v>
       </c>
       <c r="G14">
-        <v>2.097701873045496</v>
+        <v>30.22723905401205</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.640457433742301</v>
       </c>
       <c r="J14">
-        <v>7.038658262196096</v>
+        <v>10.3712848224467</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.70768734711539</v>
       </c>
       <c r="L14">
-        <v>5.653052804481364</v>
+        <v>6.773725449069863</v>
       </c>
       <c r="M14">
-        <v>14.62683823791471</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.320896521077196</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.6150964945526</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.80789621814342</v>
+        <v>26.99837090487053</v>
       </c>
       <c r="C15">
-        <v>15.7267035309688</v>
+        <v>17.90803701674664</v>
       </c>
       <c r="D15">
-        <v>8.405473060798101</v>
+        <v>3.9842528416403</v>
       </c>
       <c r="E15">
-        <v>6.214812006197028</v>
+        <v>8.065173813345391</v>
       </c>
       <c r="F15">
-        <v>81.41942090460745</v>
+        <v>23.2098586742817</v>
       </c>
       <c r="G15">
-        <v>2.099634201804778</v>
+        <v>29.72339423992042</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.878659382522446</v>
       </c>
       <c r="J15">
-        <v>7.034250383576635</v>
+        <v>10.29225313366396</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.60153778985727</v>
       </c>
       <c r="L15">
-        <v>5.655160147597982</v>
+        <v>6.801507858468196</v>
       </c>
       <c r="M15">
-        <v>14.57686687413493</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.249216621289734</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.49833218819418</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.95493211802474</v>
+        <v>26.12529675119665</v>
       </c>
       <c r="C16">
-        <v>15.11493263864602</v>
+        <v>17.34952206495412</v>
       </c>
       <c r="D16">
-        <v>8.150053782041864</v>
+        <v>3.934181310946875</v>
       </c>
       <c r="E16">
-        <v>6.162322799172914</v>
+        <v>7.946164368099977</v>
       </c>
       <c r="F16">
-        <v>79.23128417793301</v>
+        <v>23.19317768698797</v>
       </c>
       <c r="G16">
-        <v>2.110669442720306</v>
+        <v>29.55372616895269</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.708556792058708</v>
       </c>
       <c r="J16">
-        <v>7.009506864194777</v>
+        <v>10.35270061462154</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.84663323363609</v>
       </c>
       <c r="L16">
-        <v>5.668819171642138</v>
+        <v>6.722619724500023</v>
       </c>
       <c r="M16">
-        <v>14.29488691711783</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.199173255623934</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.14549487187363</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43659590560072</v>
+        <v>25.54746876682334</v>
       </c>
       <c r="C17">
-        <v>14.73582740886106</v>
+        <v>16.87957469323328</v>
       </c>
       <c r="D17">
-        <v>7.992487627471434</v>
+        <v>3.9202993735189</v>
       </c>
       <c r="E17">
-        <v>6.130597471310023</v>
+        <v>7.760392505369667</v>
       </c>
       <c r="F17">
-        <v>77.88693288354165</v>
+        <v>23.82434942857939</v>
       </c>
       <c r="G17">
-        <v>2.117414259983296</v>
+        <v>30.48926884436138</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.01767772650433</v>
       </c>
       <c r="J17">
-        <v>6.994753292047248</v>
+        <v>10.58333589678515</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.31778457965432</v>
       </c>
       <c r="L17">
-        <v>5.678562518523435</v>
+        <v>6.588516517050258</v>
       </c>
       <c r="M17">
-        <v>14.1256873201866</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.306876057282432</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.04881479147773</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.13840154200585</v>
+        <v>25.17103608527784</v>
       </c>
       <c r="C18">
-        <v>14.51625133591843</v>
+        <v>16.44155016242981</v>
       </c>
       <c r="D18">
-        <v>7.901504084776108</v>
+        <v>3.936206091280694</v>
       </c>
       <c r="E18">
-        <v>6.11250400519094</v>
+        <v>7.542962565756738</v>
       </c>
       <c r="F18">
-        <v>77.11272741491274</v>
+        <v>25.08347420821862</v>
       </c>
       <c r="G18">
-        <v>2.121287917523333</v>
+        <v>32.4686744852842</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.836005231605605</v>
       </c>
       <c r="J18">
-        <v>6.986410920382409</v>
+        <v>10.98786625020435</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.06213010414553</v>
       </c>
       <c r="L18">
-        <v>5.684649806615749</v>
+        <v>6.419146069185954</v>
       </c>
       <c r="M18">
-        <v>14.02971433903437</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.575966462363353</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.16267992226306</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.03742106761714</v>
+        <v>24.99160757950993</v>
       </c>
       <c r="C19">
-        <v>14.44163345671391</v>
+        <v>16.07164835369323</v>
       </c>
       <c r="D19">
-        <v>7.870634629959829</v>
+        <v>3.975204314691832</v>
       </c>
       <c r="E19">
-        <v>6.106402520524885</v>
+        <v>7.391237831321589</v>
       </c>
       <c r="F19">
-        <v>76.85040884821585</v>
+        <v>26.76142361150471</v>
       </c>
       <c r="G19">
-        <v>2.122598780031857</v>
+        <v>35.12980810433731</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.467997439480348</v>
       </c>
       <c r="J19">
-        <v>6.983609823811864</v>
+        <v>11.50905479382241</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.01383492808253</v>
       </c>
       <c r="L19">
-        <v>5.686792219344128</v>
+        <v>6.276803766407121</v>
       </c>
       <c r="M19">
-        <v>13.99744690833137</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.971243337085213</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.43231239071119</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.4917783705664</v>
+        <v>25.37900349331082</v>
       </c>
       <c r="C20">
-        <v>14.77633888295965</v>
+        <v>15.92451719263049</v>
       </c>
       <c r="D20">
-        <v>8.009296911467409</v>
+        <v>4.076618264967447</v>
       </c>
       <c r="E20">
-        <v>6.133958298328001</v>
+        <v>7.422180076525342</v>
       </c>
       <c r="F20">
-        <v>78.03013701687233</v>
+        <v>29.51742493864026</v>
       </c>
       <c r="G20">
-        <v>2.11669693408391</v>
+        <v>39.52801923735538</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.088572267458175</v>
       </c>
       <c r="J20">
-        <v>6.996308704420054</v>
+        <v>12.33420491887831</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.49634891127605</v>
       </c>
       <c r="L20">
-        <v>5.677474924599251</v>
+        <v>6.210320588641116</v>
       </c>
       <c r="M20">
-        <v>14.14355864704356</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.685064457062412</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.11786263904888</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.05466576284959</v>
+        <v>26.94162738144464</v>
       </c>
       <c r="C21">
-        <v>15.88358553186044</v>
+        <v>16.81742108212393</v>
       </c>
       <c r="D21">
-        <v>8.471178021896355</v>
+        <v>4.191392384145231</v>
       </c>
       <c r="E21">
-        <v>6.228528555095825</v>
+        <v>7.57313675364166</v>
       </c>
       <c r="F21">
-        <v>81.98395711818911</v>
+        <v>30.47643242772726</v>
       </c>
       <c r="G21">
-        <v>2.096774458523741</v>
+        <v>41.20491411939647</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.698604164617992</v>
       </c>
       <c r="J21">
-        <v>7.040781611022968</v>
+        <v>12.53656906449394</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.66027026756168</v>
       </c>
       <c r="L21">
-        <v>5.652070987201569</v>
+        <v>6.277911897646978</v>
       </c>
       <c r="M21">
-        <v>14.65088041910996</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.991059890916921</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.90085225432445</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.17844601504869</v>
+        <v>27.92438413046276</v>
       </c>
       <c r="C22">
-        <v>16.5965312896341</v>
+        <v>17.39780070410577</v>
       </c>
       <c r="D22">
-        <v>8.770682681980926</v>
+        <v>4.262562176327505</v>
       </c>
       <c r="E22">
-        <v>6.292174796092069</v>
+        <v>7.665767551597948</v>
       </c>
       <c r="F22">
-        <v>84.56506719557841</v>
+        <v>30.9928895431104</v>
       </c>
       <c r="G22">
-        <v>2.08362591300213</v>
+        <v>42.12323656875141</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.656896513052726</v>
       </c>
       <c r="J22">
-        <v>7.07141851213344</v>
+        <v>12.63816428368399</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.70894545775531</v>
       </c>
       <c r="L22">
-        <v>5.640176851583401</v>
+        <v>6.322218806226289</v>
       </c>
       <c r="M22">
-        <v>14.99550432362874</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.155880584849729</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.37523748346817</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57951680440649</v>
+        <v>27.40376089490958</v>
       </c>
       <c r="C23">
-        <v>16.2168435366985</v>
+        <v>17.09016129201991</v>
       </c>
       <c r="D23">
-        <v>8.611001664578177</v>
+        <v>4.224618685368396</v>
       </c>
       <c r="E23">
-        <v>6.258011959946976</v>
+        <v>7.616387762480498</v>
       </c>
       <c r="F23">
-        <v>83.18741257220236</v>
+        <v>30.71612037312426</v>
       </c>
       <c r="G23">
-        <v>2.090659370487949</v>
+        <v>41.6318472670112</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.587907674595133</v>
       </c>
       <c r="J23">
-        <v>7.054907482799699</v>
+        <v>12.5832041363413</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.68149357714666</v>
       </c>
       <c r="L23">
-        <v>5.646072537471836</v>
+        <v>6.298630326474039</v>
       </c>
       <c r="M23">
-        <v>14.81031523810891</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.06825075814554</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.12350347442989</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.46683100814588</v>
+        <v>25.34593664573602</v>
       </c>
       <c r="C24">
-        <v>14.75802873183649</v>
+        <v>15.87820049087066</v>
       </c>
       <c r="D24">
-        <v>8.001698677655462</v>
+        <v>4.079942054604309</v>
       </c>
       <c r="E24">
-        <v>6.132438418926509</v>
+        <v>7.427904994378936</v>
       </c>
       <c r="F24">
-        <v>77.96539859483678</v>
+        <v>29.69275448972316</v>
       </c>
       <c r="G24">
-        <v>2.117021248876877</v>
+        <v>39.79907036324134</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.072259789775071</v>
       </c>
       <c r="J24">
-        <v>6.995605070534526</v>
+        <v>12.39095048505277</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.60897090684322</v>
       </c>
       <c r="L24">
-        <v>5.677965117216923</v>
+        <v>6.207933025311918</v>
       </c>
       <c r="M24">
-        <v>14.13547497497521</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.729037401284895</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.13837041035007</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.28875753564737</v>
+        <v>22.93911851600154</v>
       </c>
       <c r="C25">
-        <v>13.12506345513275</v>
+        <v>14.46949278349459</v>
       </c>
       <c r="D25">
-        <v>7.3306742669527</v>
+        <v>3.921439604138869</v>
       </c>
       <c r="E25">
-        <v>6.002708042370314</v>
+        <v>7.22046158382811</v>
       </c>
       <c r="F25">
-        <v>72.29466283662899</v>
+        <v>28.64280877566545</v>
       </c>
       <c r="G25">
-        <v>2.145265294230959</v>
+        <v>37.886477908932</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.611264817849442</v>
       </c>
       <c r="J25">
-        <v>6.937010182466066</v>
+        <v>12.21568830193315</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.59219908237557</v>
       </c>
       <c r="L25">
-        <v>5.730674202009169</v>
+        <v>6.106811109059453</v>
       </c>
       <c r="M25">
-        <v>13.45875232727575</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.348222439210833</v>
       </c>
       <c r="O25">
+        <v>14.00978390979528</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.01190612354817</v>
+        <v>21.05301887472697</v>
       </c>
       <c r="C2">
-        <v>13.34386144240957</v>
+        <v>13.91163712853963</v>
       </c>
       <c r="D2">
-        <v>3.802327141210841</v>
+        <v>3.999907823355044</v>
       </c>
       <c r="E2">
-        <v>7.063219963345195</v>
+        <v>7.0686068345785</v>
       </c>
       <c r="F2">
-        <v>27.9168014962673</v>
+        <v>26.25293518097262</v>
       </c>
       <c r="G2">
-        <v>36.53791940892218</v>
+        <v>33.36453689383227</v>
       </c>
       <c r="H2">
-        <v>3.024075094077743</v>
+        <v>2.849145589291693</v>
       </c>
       <c r="J2">
-        <v>12.11231010644387</v>
+        <v>11.71998007966793</v>
       </c>
       <c r="K2">
-        <v>18.62706020985166</v>
+        <v>17.21342118301419</v>
       </c>
       <c r="L2">
-        <v>6.029160720794781</v>
+        <v>13.9067313612652</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.59521956999612</v>
       </c>
       <c r="N2">
-        <v>7.055895812153665</v>
+        <v>5.988422910175686</v>
       </c>
       <c r="O2">
-        <v>13.12462467127643</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.342325093494723</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.21475324993157</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.65226691775591</v>
+        <v>19.64852972781516</v>
       </c>
       <c r="C3">
-        <v>12.52554924667506</v>
+        <v>12.98439674553459</v>
       </c>
       <c r="D3">
-        <v>3.719997252587633</v>
+        <v>3.921743654074473</v>
       </c>
       <c r="E3">
-        <v>6.953419447069158</v>
+        <v>6.978163762746845</v>
       </c>
       <c r="F3">
-        <v>27.45442480694847</v>
+        <v>25.91951653368599</v>
       </c>
       <c r="G3">
-        <v>35.66361501354073</v>
+        <v>32.77681553273328</v>
       </c>
       <c r="H3">
-        <v>3.314569125287783</v>
+        <v>3.108377136374822</v>
       </c>
       <c r="J3">
-        <v>12.05724051758389</v>
+        <v>11.65279632845008</v>
       </c>
       <c r="K3">
-        <v>18.67737770349859</v>
+        <v>17.34430157401501</v>
       </c>
       <c r="L3">
-        <v>5.974378770844721</v>
+        <v>14.05306442048923</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.66319580619477</v>
       </c>
       <c r="N3">
-        <v>6.8509248391674</v>
+        <v>5.936386571991952</v>
       </c>
       <c r="O3">
-        <v>12.49285828070731</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.13763801068132</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.56123321408096</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77093626764453</v>
+        <v>18.73383571899203</v>
       </c>
       <c r="C4">
-        <v>11.99574959325214</v>
+        <v>12.38282554888462</v>
       </c>
       <c r="D4">
-        <v>3.668632627336232</v>
+        <v>3.873273405382881</v>
       </c>
       <c r="E4">
-        <v>6.884275027591133</v>
+        <v>6.921222717892012</v>
       </c>
       <c r="F4">
-        <v>27.18519381421598</v>
+        <v>25.72717622966608</v>
       </c>
       <c r="G4">
-        <v>35.14712435578879</v>
+        <v>32.4402724295024</v>
       </c>
       <c r="H4">
-        <v>3.498466031635435</v>
+        <v>3.272626382489621</v>
       </c>
       <c r="J4">
-        <v>12.03047113471404</v>
+        <v>11.61458318903697</v>
       </c>
       <c r="K4">
-        <v>18.72054893292033</v>
+        <v>17.43380908016676</v>
       </c>
       <c r="L4">
-        <v>5.939628356894846</v>
+        <v>14.14550413900738</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.7302786517194</v>
       </c>
       <c r="N4">
-        <v>6.721926062252742</v>
+        <v>5.903470034075439</v>
       </c>
       <c r="O4">
-        <v>12.09009222428114</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.009340181536924</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.1436120851782</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.40013149270307</v>
+        <v>18.34786100177488</v>
       </c>
       <c r="C5">
-        <v>11.77299019728509</v>
+        <v>12.12957718550024</v>
       </c>
       <c r="D5">
-        <v>3.64749482211741</v>
+        <v>3.853407332242009</v>
       </c>
       <c r="E5">
-        <v>6.855645989888824</v>
+        <v>6.897650483786358</v>
       </c>
       <c r="F5">
-        <v>27.07917024331576</v>
+        <v>25.65186306391868</v>
       </c>
       <c r="G5">
-        <v>34.94187692410428</v>
+        <v>32.30915465882412</v>
       </c>
       <c r="H5">
-        <v>3.574829995069405</v>
+        <v>3.340863035564064</v>
       </c>
       <c r="J5">
-        <v>12.02128051370784</v>
+        <v>11.59975628188127</v>
       </c>
       <c r="K5">
-        <v>18.74109935217964</v>
+        <v>17.47248529691673</v>
       </c>
       <c r="L5">
-        <v>5.925180281998251</v>
+        <v>14.18383239587166</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.76375858827735</v>
       </c>
       <c r="N5">
-        <v>6.668607497044955</v>
+        <v>5.889808575381396</v>
       </c>
       <c r="O5">
-        <v>11.92238553052758</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.956448625554361</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.96947666820826</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.3378573534424</v>
+        <v>18.28296912713196</v>
       </c>
       <c r="C6">
-        <v>11.73558751027963</v>
+        <v>12.08703646963593</v>
       </c>
       <c r="D6">
-        <v>3.643972416025679</v>
+        <v>3.850101885919553</v>
       </c>
       <c r="E6">
-        <v>6.850864344140499</v>
+        <v>6.893713689467765</v>
       </c>
       <c r="F6">
-        <v>27.06178783177467</v>
+        <v>25.63954112592512</v>
       </c>
       <c r="G6">
-        <v>34.90811443733307</v>
+        <v>32.28774357667199</v>
       </c>
       <c r="H6">
-        <v>3.58759715440224</v>
+        <v>3.352273173266707</v>
       </c>
       <c r="J6">
-        <v>12.01985661245027</v>
+        <v>11.59733874316381</v>
       </c>
       <c r="K6">
-        <v>18.74468666121658</v>
+        <v>17.47903761158112</v>
       </c>
       <c r="L6">
-        <v>5.922763662654408</v>
+        <v>14.19023673915266</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.76968193059328</v>
       </c>
       <c r="N6">
-        <v>6.659709921240736</v>
+        <v>5.887525005596921</v>
       </c>
       <c r="O6">
-        <v>11.89432720833923</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.947630752502533</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.9403282724229</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76598258626089</v>
+        <v>18.7284476733248</v>
       </c>
       <c r="C7">
-        <v>11.99277313272665</v>
+        <v>12.36916771078454</v>
       </c>
       <c r="D7">
-        <v>3.668348392297947</v>
+        <v>3.876372928938294</v>
       </c>
       <c r="E7">
-        <v>6.883890780148527</v>
+        <v>6.920510914069928</v>
       </c>
       <c r="F7">
-        <v>27.18374900719253</v>
+        <v>25.70025919568833</v>
       </c>
       <c r="G7">
-        <v>35.14433501562196</v>
+        <v>32.49805839231151</v>
       </c>
       <c r="H7">
-        <v>3.499490092051672</v>
+        <v>3.27441550808772</v>
       </c>
       <c r="J7">
-        <v>12.03034030119152</v>
+        <v>11.56478897846069</v>
       </c>
       <c r="K7">
-        <v>18.72081427539493</v>
+        <v>17.4206268595443</v>
       </c>
       <c r="L7">
-        <v>5.939434675959361</v>
+        <v>14.13385099733603</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.72213451974961</v>
       </c>
       <c r="N7">
-        <v>6.721209971850055</v>
+        <v>5.902816884064725</v>
       </c>
       <c r="O7">
-        <v>12.08784472072191</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.00824924955392</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.14131687820023</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.55277055984435</v>
+        <v>20.57880316727794</v>
       </c>
       <c r="C8">
-        <v>13.0673897053134</v>
+        <v>13.56701804447382</v>
       </c>
       <c r="D8">
-        <v>3.774107322069067</v>
+        <v>3.984142476108365</v>
       </c>
       <c r="E8">
-        <v>7.025707932693914</v>
+        <v>7.036497798842688</v>
       </c>
       <c r="F8">
-        <v>27.75433280984737</v>
+        <v>26.05141309730553</v>
       </c>
       <c r="G8">
-        <v>36.23231025937518</v>
+        <v>33.3515080066578</v>
       </c>
       <c r="H8">
-        <v>3.123109745039896</v>
+        <v>2.940196368902807</v>
       </c>
       <c r="J8">
-        <v>12.09182870199159</v>
+        <v>11.53444574104055</v>
       </c>
       <c r="K8">
-        <v>18.64178315473631</v>
+        <v>17.21167930750554</v>
       </c>
       <c r="L8">
-        <v>6.010498879958607</v>
+        <v>13.91920462068062</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.58231265377769</v>
       </c>
       <c r="N8">
-        <v>6.985897786530106</v>
+        <v>5.969249805584385</v>
       </c>
       <c r="O8">
-        <v>12.90996303789126</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.271116958426584</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.99291662299679</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.77517470691235</v>
+        <v>23.79616207770199</v>
       </c>
       <c r="C9">
-        <v>14.95768759714224</v>
+        <v>15.69832844175346</v>
       </c>
       <c r="D9">
-        <v>3.975188264525555</v>
+        <v>4.17897228825261</v>
       </c>
       <c r="E9">
-        <v>7.290978468332174</v>
+        <v>7.254844705287426</v>
       </c>
       <c r="F9">
-        <v>28.98922059992142</v>
+        <v>26.93536785424537</v>
       </c>
       <c r="G9">
-        <v>38.52178012110748</v>
+        <v>34.99961507695975</v>
       </c>
       <c r="H9">
-        <v>2.427332612759158</v>
+        <v>2.320683144305134</v>
       </c>
       <c r="J9">
-        <v>12.27060593711128</v>
+        <v>11.67915801680105</v>
       </c>
       <c r="K9">
-        <v>18.59014208148587</v>
+        <v>16.92890230256612</v>
       </c>
       <c r="L9">
-        <v>6.141347314406162</v>
+        <v>13.5628934366366</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.54971684532056</v>
       </c>
       <c r="N9">
-        <v>7.478422644423965</v>
+        <v>6.093798998451884</v>
       </c>
       <c r="O9">
-        <v>14.39857295747225</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.765246548357423</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.52729495368809</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.9273865593703</v>
+        <v>25.92137916834541</v>
       </c>
       <c r="C10">
-        <v>16.25396133742796</v>
+        <v>17.08842460399423</v>
       </c>
       <c r="D10">
-        <v>4.11285797826552</v>
+        <v>4.32804968916286</v>
       </c>
       <c r="E10">
-        <v>7.469307277124764</v>
+        <v>7.401720679532795</v>
       </c>
       <c r="F10">
-        <v>29.72710817568827</v>
+        <v>27.3079455986284</v>
       </c>
       <c r="G10">
-        <v>39.91879779843298</v>
+        <v>36.33393285750957</v>
       </c>
       <c r="H10">
-        <v>1.970780823327763</v>
+        <v>1.921686621281678</v>
       </c>
       <c r="J10">
-        <v>12.36509206750612</v>
+        <v>11.47184885150171</v>
       </c>
       <c r="K10">
-        <v>18.4784295707739</v>
+        <v>16.58648416940931</v>
       </c>
       <c r="L10">
-        <v>6.2346136207328</v>
+        <v>13.17812395817644</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.51232380553095</v>
       </c>
       <c r="N10">
-        <v>7.760962313948489</v>
+        <v>6.185426337287824</v>
       </c>
       <c r="O10">
-        <v>15.36916350863483</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.045076479483059</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.52137785804729</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.92715971266689</v>
+        <v>26.91519134952174</v>
       </c>
       <c r="C11">
-        <v>17.15190256759186</v>
+        <v>17.81989074270614</v>
       </c>
       <c r="D11">
-        <v>4.118921385677091</v>
+        <v>4.338265648947873</v>
       </c>
       <c r="E11">
-        <v>7.54656395515958</v>
+        <v>7.484568070062585</v>
       </c>
       <c r="F11">
-        <v>28.01154176934085</v>
+        <v>25.50752434840942</v>
       </c>
       <c r="G11">
-        <v>37.35431325641812</v>
+        <v>34.77716996547213</v>
       </c>
       <c r="H11">
-        <v>2.861300875166955</v>
+        <v>2.842947536580804</v>
       </c>
       <c r="J11">
-        <v>11.76473666609589</v>
+        <v>10.45048937375124</v>
       </c>
       <c r="K11">
-        <v>17.20305351047417</v>
+        <v>15.37633392405182</v>
       </c>
       <c r="L11">
-        <v>6.343045122556909</v>
+        <v>12.27131612829635</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.63529060539689</v>
       </c>
       <c r="N11">
-        <v>7.367383895919481</v>
+        <v>6.325714271699947</v>
       </c>
       <c r="O11">
-        <v>15.42953876388018</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.614330522868959</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.56916549303765</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.33580359368831</v>
+        <v>27.32532199327398</v>
       </c>
       <c r="C12">
-        <v>17.65333889368969</v>
+        <v>18.18588579548319</v>
       </c>
       <c r="D12">
-        <v>4.095173369245424</v>
+        <v>4.30224196272744</v>
       </c>
       <c r="E12">
-        <v>7.685379024582119</v>
+        <v>7.627232682055188</v>
       </c>
       <c r="F12">
-        <v>26.38316588635583</v>
+        <v>23.97831031747138</v>
       </c>
       <c r="G12">
-        <v>34.84619184663652</v>
+        <v>32.93408045450598</v>
       </c>
       <c r="H12">
-        <v>4.209065867432692</v>
+        <v>4.19863363543393</v>
       </c>
       <c r="J12">
-        <v>11.23239795135328</v>
+        <v>9.830580202114851</v>
       </c>
       <c r="K12">
-        <v>16.16634937305036</v>
+        <v>14.50746320770199</v>
       </c>
       <c r="L12">
-        <v>6.48135943174463</v>
+        <v>11.66880421675156</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.938829535247914</v>
       </c>
       <c r="N12">
-        <v>6.988798737663179</v>
+        <v>6.486679416351064</v>
       </c>
       <c r="O12">
-        <v>15.27301462817514</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.205673498546024</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.39777267088141</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.32829851112712</v>
+        <v>27.32560869430997</v>
       </c>
       <c r="C13">
-        <v>17.8949117406616</v>
+        <v>18.32485243531401</v>
       </c>
       <c r="D13">
-        <v>4.046356107668752</v>
+        <v>4.222720663391095</v>
       </c>
       <c r="E13">
-        <v>7.870955591188588</v>
+        <v>7.822997741005401</v>
       </c>
       <c r="F13">
-        <v>24.70417593713842</v>
+        <v>22.60203920733332</v>
       </c>
       <c r="G13">
-        <v>32.1783390775811</v>
+        <v>30.57303407690404</v>
       </c>
       <c r="H13">
-        <v>5.628346499978378</v>
+        <v>5.617058263589572</v>
       </c>
       <c r="J13">
-        <v>10.7187806618554</v>
+        <v>9.535534075947764</v>
       </c>
       <c r="K13">
-        <v>15.26189525415026</v>
+        <v>13.87464629232012</v>
       </c>
       <c r="L13">
-        <v>6.644119813302303</v>
+        <v>11.25764460176851</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.37516084566438</v>
       </c>
       <c r="N13">
-        <v>6.597220516247856</v>
+        <v>6.665086352731858</v>
       </c>
       <c r="O13">
-        <v>14.93638904864595</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.788753314711858</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.04335716143506</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.135320830032</v>
+        <v>27.14079870456634</v>
       </c>
       <c r="C14">
-        <v>17.95054440126845</v>
+        <v>18.32137662391638</v>
       </c>
       <c r="D14">
-        <v>4.000730827940727</v>
+        <v>4.149756076853099</v>
       </c>
       <c r="E14">
-        <v>8.031071469163169</v>
+        <v>7.994879572422891</v>
       </c>
       <c r="F14">
-        <v>23.50765592318657</v>
+        <v>21.70267430173751</v>
       </c>
       <c r="G14">
-        <v>30.22723905401205</v>
+        <v>28.68446363613802</v>
       </c>
       <c r="H14">
-        <v>6.640457433742301</v>
+        <v>6.626725488789955</v>
       </c>
       <c r="J14">
-        <v>10.3712848224467</v>
+        <v>9.452980629611664</v>
       </c>
       <c r="K14">
-        <v>14.70768734711539</v>
+        <v>13.54225943356217</v>
       </c>
       <c r="L14">
-        <v>6.773725449069863</v>
+        <v>11.04937048563201</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.052405590093962</v>
       </c>
       <c r="N14">
-        <v>6.320896521077196</v>
+        <v>6.801076939032483</v>
       </c>
       <c r="O14">
-        <v>14.6150964945526</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.497263404455961</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.707859668856</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.99837090487053</v>
+        <v>27.0071401674206</v>
       </c>
       <c r="C15">
-        <v>17.90803701674664</v>
+        <v>18.27026218849927</v>
       </c>
       <c r="D15">
-        <v>3.9842528416403</v>
+        <v>4.124310383283273</v>
       </c>
       <c r="E15">
-        <v>8.065173813345391</v>
+        <v>8.034820881875516</v>
       </c>
       <c r="F15">
-        <v>23.2098586742817</v>
+        <v>21.51243409111105</v>
       </c>
       <c r="G15">
-        <v>29.72339423992042</v>
+        <v>28.13300527915793</v>
       </c>
       <c r="H15">
-        <v>6.878659382522446</v>
+        <v>6.863370552192672</v>
       </c>
       <c r="J15">
-        <v>10.29225313366396</v>
+        <v>9.484217452460515</v>
       </c>
       <c r="K15">
-        <v>14.60153778985727</v>
+        <v>13.50267189947728</v>
       </c>
       <c r="L15">
-        <v>6.801507858468196</v>
+        <v>11.02627024743321</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.002150202785678</v>
       </c>
       <c r="N15">
-        <v>6.249216621289734</v>
+        <v>6.829549971750754</v>
       </c>
       <c r="O15">
-        <v>14.49833218819418</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.423013163172588</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.58684004682369</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.12529675119665</v>
+        <v>26.14612416544038</v>
       </c>
       <c r="C16">
-        <v>17.34952206495412</v>
+        <v>17.75946182718618</v>
       </c>
       <c r="D16">
-        <v>3.934181310946875</v>
+        <v>4.055289837927686</v>
       </c>
       <c r="E16">
-        <v>7.946164368099977</v>
+        <v>7.942438615670297</v>
       </c>
       <c r="F16">
-        <v>23.19317768698797</v>
+        <v>21.78734883555811</v>
       </c>
       <c r="G16">
-        <v>29.55372616895269</v>
+        <v>27.45728258960786</v>
       </c>
       <c r="H16">
-        <v>6.708556792058708</v>
+        <v>6.682030813513332</v>
       </c>
       <c r="J16">
-        <v>10.35270061462154</v>
+        <v>9.942896354065891</v>
       </c>
       <c r="K16">
-        <v>14.84663323363609</v>
+        <v>13.8618610180848</v>
       </c>
       <c r="L16">
-        <v>6.722619724500023</v>
+        <v>11.27268733756448</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.243031983817565</v>
       </c>
       <c r="N16">
-        <v>6.199173255623934</v>
+        <v>6.747315583456201</v>
       </c>
       <c r="O16">
-        <v>14.14549487187363</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.382937577787088</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.2269638930253</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.54746876682334</v>
+        <v>25.57282196521565</v>
       </c>
       <c r="C17">
-        <v>16.87957469323328</v>
+        <v>17.34682982388395</v>
       </c>
       <c r="D17">
-        <v>3.9202993735189</v>
+        <v>4.043133570607658</v>
       </c>
       <c r="E17">
-        <v>7.760392505369667</v>
+        <v>7.766406176209795</v>
       </c>
       <c r="F17">
-        <v>23.82434942857939</v>
+        <v>22.45508720268038</v>
       </c>
       <c r="G17">
-        <v>30.48926884436138</v>
+        <v>28.05118961864523</v>
       </c>
       <c r="H17">
-        <v>6.01767772650433</v>
+        <v>5.981169490695083</v>
       </c>
       <c r="J17">
-        <v>10.58333589678515</v>
+        <v>10.30823482958768</v>
       </c>
       <c r="K17">
-        <v>15.31778457965432</v>
+        <v>14.30343691744391</v>
       </c>
       <c r="L17">
-        <v>6.588516517050258</v>
+        <v>11.58231902801642</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.577719683307746</v>
       </c>
       <c r="N17">
-        <v>6.306876057282432</v>
+        <v>6.608376974618968</v>
       </c>
       <c r="O17">
-        <v>14.04881479147773</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.505547484906657</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.13265317571926</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.17103608527784</v>
+        <v>25.19546201928621</v>
       </c>
       <c r="C18">
-        <v>16.44155016242981</v>
+        <v>16.99726517944493</v>
       </c>
       <c r="D18">
-        <v>3.936206091280694</v>
+        <v>4.072615596998904</v>
       </c>
       <c r="E18">
-        <v>7.542962565756738</v>
+        <v>7.545678425324871</v>
       </c>
       <c r="F18">
-        <v>25.08347420821862</v>
+        <v>23.5868510541656</v>
       </c>
       <c r="G18">
-        <v>32.4686744852842</v>
+        <v>29.65985637930432</v>
       </c>
       <c r="H18">
-        <v>4.836005231605605</v>
+        <v>4.787738495115619</v>
       </c>
       <c r="J18">
-        <v>10.98786625020435</v>
+        <v>10.7142943988611</v>
       </c>
       <c r="K18">
-        <v>16.06213010414553</v>
+        <v>14.91254577084475</v>
       </c>
       <c r="L18">
-        <v>6.419146069185954</v>
+        <v>12.02076070135342</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.05629019899525</v>
       </c>
       <c r="N18">
-        <v>6.575966462363353</v>
+        <v>6.429462991222011</v>
       </c>
       <c r="O18">
-        <v>14.16267992226306</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.796298581325098</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.25794526134604</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.99160757950993</v>
+        <v>25.01084445955202</v>
       </c>
       <c r="C19">
-        <v>16.07164835369323</v>
+        <v>16.73896352643686</v>
       </c>
       <c r="D19">
-        <v>3.975204314691832</v>
+        <v>4.132585885717906</v>
       </c>
       <c r="E19">
-        <v>7.391237831321589</v>
+        <v>7.378007237533282</v>
       </c>
       <c r="F19">
-        <v>26.76142361150471</v>
+        <v>25.03321997734373</v>
       </c>
       <c r="G19">
-        <v>35.12980810433731</v>
+        <v>31.90201145323227</v>
       </c>
       <c r="H19">
-        <v>3.467997439480348</v>
+        <v>3.404624872127491</v>
       </c>
       <c r="J19">
-        <v>11.50905479382241</v>
+        <v>11.16109195179821</v>
       </c>
       <c r="K19">
-        <v>17.01383492808253</v>
+        <v>15.65421786947965</v>
       </c>
       <c r="L19">
-        <v>6.276803766407121</v>
+        <v>12.56138994954839</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.64654452438859</v>
       </c>
       <c r="N19">
-        <v>6.971243337085213</v>
+        <v>6.269534420367331</v>
       </c>
       <c r="O19">
-        <v>14.43231239071119</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.217998227032646</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.54542083844982</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.37900349331082</v>
+        <v>25.38111748041165</v>
       </c>
       <c r="C20">
-        <v>15.92451719263049</v>
+        <v>16.76331472450804</v>
       </c>
       <c r="D20">
-        <v>4.076618264967447</v>
+        <v>4.277137503202741</v>
       </c>
       <c r="E20">
-        <v>7.422180076525342</v>
+        <v>7.364153006608043</v>
       </c>
       <c r="F20">
-        <v>29.51742493864026</v>
+        <v>27.28052544118821</v>
       </c>
       <c r="G20">
-        <v>39.52801923735538</v>
+        <v>35.76284906189832</v>
       </c>
       <c r="H20">
-        <v>2.088572267458175</v>
+        <v>2.021931228320215</v>
       </c>
       <c r="J20">
-        <v>12.33420491887831</v>
+        <v>11.68807293808735</v>
       </c>
       <c r="K20">
-        <v>18.49634891127605</v>
+        <v>16.71480928712676</v>
       </c>
       <c r="L20">
-        <v>6.210320588641116</v>
+        <v>13.30761875657558</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.54760911939251</v>
       </c>
       <c r="N20">
-        <v>7.685064457062412</v>
+        <v>6.162905712810577</v>
       </c>
       <c r="O20">
-        <v>15.11786263904888</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.970792718998323</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.26446206515585</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.94162738144464</v>
+        <v>26.91639172593166</v>
       </c>
       <c r="C21">
-        <v>16.81742108212393</v>
+        <v>17.60018712964959</v>
       </c>
       <c r="D21">
-        <v>4.191392384145231</v>
+        <v>4.468982508201321</v>
       </c>
       <c r="E21">
-        <v>7.57313675364166</v>
+        <v>7.481360433844494</v>
       </c>
       <c r="F21">
-        <v>30.47643242772726</v>
+        <v>27.46115291639887</v>
       </c>
       <c r="G21">
-        <v>41.20491411939647</v>
+        <v>38.35094036272319</v>
       </c>
       <c r="H21">
-        <v>1.698604164617992</v>
+        <v>1.689510629058225</v>
       </c>
       <c r="J21">
-        <v>12.53656906449394</v>
+        <v>10.78308741805609</v>
       </c>
       <c r="K21">
-        <v>18.66027026756168</v>
+        <v>16.3932541251435</v>
       </c>
       <c r="L21">
-        <v>6.277911897646978</v>
+        <v>12.9679524719616</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.49626757406771</v>
       </c>
       <c r="N21">
-        <v>7.991059890916921</v>
+        <v>6.216464225813369</v>
       </c>
       <c r="O21">
-        <v>15.90085225432445</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.275070580210928</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.0656629026868</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.92438413046276</v>
+        <v>27.88107983486148</v>
       </c>
       <c r="C22">
-        <v>17.39780070410577</v>
+        <v>18.1281229005496</v>
       </c>
       <c r="D22">
-        <v>4.262562176327505</v>
+        <v>4.595779529554963</v>
       </c>
       <c r="E22">
-        <v>7.665767551597948</v>
+        <v>7.555329486949808</v>
       </c>
       <c r="F22">
-        <v>30.9928895431104</v>
+        <v>27.45742970902743</v>
       </c>
       <c r="G22">
-        <v>42.12323656875141</v>
+        <v>39.97326466403575</v>
       </c>
       <c r="H22">
-        <v>1.656896513052726</v>
+        <v>1.629921034879514</v>
       </c>
       <c r="J22">
-        <v>12.63816428368399</v>
+        <v>10.14149730710207</v>
       </c>
       <c r="K22">
-        <v>18.70894545775531</v>
+        <v>16.11672517766264</v>
       </c>
       <c r="L22">
-        <v>6.322218806226289</v>
+        <v>12.70093761484822</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.42064459443497</v>
       </c>
       <c r="N22">
-        <v>8.155880584849729</v>
+        <v>6.254131654424469</v>
       </c>
       <c r="O22">
-        <v>16.37523748346817</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.436790960381803</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.54881330153337</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.40376089490958</v>
+        <v>27.37065925553537</v>
       </c>
       <c r="C23">
-        <v>17.09016129201991</v>
+        <v>17.86816564728297</v>
       </c>
       <c r="D23">
-        <v>4.224618685368396</v>
+        <v>4.518823712860118</v>
       </c>
       <c r="E23">
-        <v>7.616387762480498</v>
+        <v>7.516117556628998</v>
       </c>
       <c r="F23">
-        <v>30.71612037312426</v>
+        <v>27.51967292371954</v>
       </c>
       <c r="G23">
-        <v>41.6318472670112</v>
+        <v>38.96053220679871</v>
       </c>
       <c r="H23">
-        <v>1.587907674595133</v>
+        <v>1.59448974207478</v>
       </c>
       <c r="J23">
-        <v>12.5832041363413</v>
+        <v>10.59040516596638</v>
       </c>
       <c r="K23">
-        <v>18.68149357714666</v>
+        <v>16.29835933528187</v>
       </c>
       <c r="L23">
-        <v>6.298630326474039</v>
+        <v>12.86641410841663</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.48832530289521</v>
       </c>
       <c r="N23">
-        <v>8.06825075814554</v>
+        <v>6.234798174445753</v>
       </c>
       <c r="O23">
-        <v>16.12350347442989</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.351589791192234</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.2927716690926</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.34593664573602</v>
+        <v>25.34762586980398</v>
       </c>
       <c r="C24">
-        <v>15.87820049087066</v>
+        <v>16.72823782216652</v>
       </c>
       <c r="D24">
-        <v>4.079942054604309</v>
+        <v>4.282599431040021</v>
       </c>
       <c r="E24">
-        <v>7.427904994378936</v>
+        <v>7.367388197726349</v>
       </c>
       <c r="F24">
-        <v>29.69275448972316</v>
+        <v>27.43585268181684</v>
       </c>
       <c r="G24">
-        <v>39.79907036324134</v>
+        <v>35.98386817506519</v>
       </c>
       <c r="H24">
-        <v>2.072259789775071</v>
+        <v>2.00559096671724</v>
       </c>
       <c r="J24">
-        <v>12.39095048505277</v>
+        <v>11.74336132615174</v>
       </c>
       <c r="K24">
-        <v>18.60897090684322</v>
+        <v>16.8065203055175</v>
       </c>
       <c r="L24">
-        <v>6.207933025311918</v>
+        <v>13.37610465256294</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.61781865246998</v>
       </c>
       <c r="N24">
-        <v>7.729037401284895</v>
+        <v>6.157198687850514</v>
       </c>
       <c r="O24">
-        <v>15.13837041035007</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.017744817587378</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.28666294157002</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.93911851600154</v>
+        <v>22.96975440660453</v>
       </c>
       <c r="C25">
-        <v>14.46949278349459</v>
+        <v>15.16132093647452</v>
       </c>
       <c r="D25">
-        <v>3.921439604138869</v>
+        <v>4.122059581648335</v>
       </c>
       <c r="E25">
-        <v>7.22046158382811</v>
+        <v>7.197270641194121</v>
       </c>
       <c r="F25">
-        <v>28.64280877566545</v>
+        <v>26.72004467527463</v>
       </c>
       <c r="G25">
-        <v>37.886477908932</v>
+        <v>34.45162688467784</v>
       </c>
       <c r="H25">
-        <v>2.611264817849442</v>
+        <v>2.483210118582513</v>
       </c>
       <c r="J25">
-        <v>12.21568830193315</v>
+        <v>11.70511689325686</v>
       </c>
       <c r="K25">
-        <v>18.59219908237557</v>
+        <v>17.01548571971995</v>
       </c>
       <c r="L25">
-        <v>6.106811109059453</v>
+        <v>13.67188272434029</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.54912577572257</v>
       </c>
       <c r="N25">
-        <v>7.348222439210833</v>
+        <v>6.06141791804356</v>
       </c>
       <c r="O25">
-        <v>14.00978390979528</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.634749667217072</v>
       </c>
       <c r="Q25">
+        <v>14.12744384641693</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
